--- a/medicine/Enfance/Anne-Marie_Desplat-Duc/Anne-Marie_Desplat-Duc.xlsx
+++ b/medicine/Enfance/Anne-Marie_Desplat-Duc/Anne-Marie_Desplat-Duc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne-Marie Desplat-Duc est une romancière française, née le 25 septembre 1948, à Privas, en Ardèche. Elle vit actuellement dans les Yvelines.
 </t>
@@ -511,13 +523,50 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Elle a publié des romans chez Père Castor – Flammarion dont la série à succès Les Colombes du Roi-Soleil, la série Les Héros du 18 (dans la collection « Premiers Romans ») et plusieurs titres de la collection « Castor Poche » dont Félix Têtedeveau, Un héros pas comme les autres.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a publié des romans chez Père Castor – Flammarion dont la série à succès Les Colombes du Roi-Soleil, la série Les Héros du 18 (dans la collection « Premiers Romans ») et plusieurs titres de la collection « Castor Poche » dont Félix Têtedeveau, Un héros pas comme les autres.
 Elle a également publié des romans chez Hachette Jeunesse, Bayard Jeunesse et Rageot.
 Anne-Marie Desplat-Duc a reçu le Prix Tam-Tam du Livre de jeunesse en 1996 pour Félix Têtedeveau, le Prix Chronos en 2001 pour Plumette, une poulette superchouette (Rageot) et le Prix du Roman historique 2007 des Collégiens de la Vienne pour 1943, l’espoir du retour (Hachette Jeunesse).
-Série Les Colombes du Roi-Soleil
-Les Comédiennes de Monsieur Racine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Série Les Colombes du Roi-Soleil</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Comédiennes de Monsieur Racine
 Le Secret de Louise
 Charlotte, la rebelle
 La Promesse d'Hortense
@@ -532,67 +581,445 @@
 Gabrielle, demoiselle d'honneur
 Retrouvailles à Versailles
 Le défi de Diane
-Rosalie et la fille de l'empereur de Chine
-Série Marie-Anne, fille du roi
-Premier Bal à Versailles
+Rosalie et la fille de l'empereur de Chine</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Marie-Anne, fille du roi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Premier Bal à Versailles
 Un traître à Versailles
 Le Secret de la lavandière
 Une mystérieuse reine de Pologne
 La Malédiction du diamant bleu
-Le fantôme de Chambord
-Série Duchesses Rebelles
-L'intrépide cousine du roi
+Le fantôme de Chambord</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Duchesses Rebelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'intrépide cousine du roi
 La dangereuse amie de la reine
-Pour l'amour d'un prince
-Série Marie-Antoinette et ses sœurs
-Premiers secrets
+Pour l'amour d'un prince</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Marie-Antoinette et ses sœurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Premiers secrets
 Premiers bals
 Premiers tourments
-Adieu Vienne
-Série Les Héros du 18
-Un mystérieux incendiaire
+Adieu Vienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Les Héros du 18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Un mystérieux incendiaire
 Prisonniers des flammes
 Déluge sur la ville
 Les Chiens en mission
-Urgence en série
-Éditions Rageot
-Plumette une poule super-chouette !
-Série Vétérinaire
-Vétérinaire c'est super !
+Urgence en série</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Éditions Rageot</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Plumette une poule super-chouette !</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Éditions Rageot</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Vétérinaire</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Vétérinaire c'est super !
 Vétérinaire au zoo
 Vétérinaire chez les tigres
 Vétérinaire Lion en danger
 Vétérinaire et les bébés animaux
-Vétérinaire sauvons les singes
-Chez Hachette
-Les Exilés de l'an II, 1996  (ISBN 978-201321295-3)
+Vétérinaire sauvons les singes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Chez Hachette</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les Exilés de l'an II, 1996  (ISBN 978-201321295-3)
 La Voiture d'Arthur
 Je serai pompier
 La Soie au bout des doigts
 Adieu Julie
-1943, l'espoir du retour (nouveau titre : 1943, l'aventure obligatoire)
-Chez Flammarion Castor Poche
-Le Trésor de Mazan
+1943, l'espoir du retour (nouveau titre : 1943, l'aventure obligatoire)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Chez Flammarion Castor Poche</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le Trésor de Mazan
 Félix Têtedeveau
 Un héros pas comme les autres
 Une formule magicatastrophique
 Ton amie pour la vie
 L'enfance du soleil
-Les lumières du théâtre
-Chez Éveil et Découvertes
-Vacances Cauchemars
+Les lumières du théâtre</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Chez Éveil et Découvertes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Vacances Cauchemars
 L'auteur a disparu
 La voix de mon chien
 Deux chats pitres
-Un mystérieux bracelet
-Chez Auzou
-La série : Dinosaurex
+Un mystérieux bracelet</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Chez Auzou</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>La série : Dinosaurex
 Le cyclone
 Dans la forêt Colombienne
 Seule face au danger
-La migration des dinosaures
-Chez Scrineo
-Comment devenir une vraie sorcière
+La migration des dinosaures</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Chez Scrineo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Comment devenir une vraie sorcière
 Vivien, drôle de chien
 La série : Théo, super héros de la nature
 SOS insectes
@@ -601,33 +1028,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Anne-Marie_Desplat-Duc</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Desplat-Duc</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Desplat-Duc</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Autres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant la crise du Covid-19 en 2020, elle a participé à un collectif d’auteurs et d’autrices (Cassandra O'Donnell, Carina Rozenfeld, Jean-Luc Marcastel, Silène Edgar, Thomas Andrew, Sebastian Bernadotte, Evelyne Brisou-Pellen, Laurence Colin, Katia Lanero Zamora, Camille Salomon, Anna Combelle, Stéphane Tamaillon, Solène Chartier, Carole Jamin) qui ont mis des histoires en libre de droit sur le site Kilitoo[1], proposant ainsi aux enfants de 2 à 15 ans un vaste choix de lectures basées sur le fantastique, la fantasy et l’imaginaire.
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la crise du Covid-19 en 2020, elle a participé à un collectif d’auteurs et d’autrices (Cassandra O'Donnell, Carina Rozenfeld, Jean-Luc Marcastel, Silène Edgar, Thomas Andrew, Sebastian Bernadotte, Evelyne Brisou-Pellen, Laurence Colin, Katia Lanero Zamora, Camille Salomon, Anna Combelle, Stéphane Tamaillon, Solène Chartier, Carole Jamin) qui ont mis des histoires en libre de droit sur le site Kilitoo, proposant ainsi aux enfants de 2 à 15 ans un vaste choix de lectures basées sur le fantastique, la fantasy et l’imaginaire.
 </t>
         </is>
       </c>
